--- a/Norway_Morsa/MetData_Processing/notebooks/05_era5_s5_vars_of_interest.xlsx
+++ b/Norway_Morsa/MetData_Processing/notebooks/05_era5_s5_vars_of_interest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E523577-179B-41EA-BD65-4EF5F96E3BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2121D666-3279-48CA-98C9-F26149155399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="968" windowWidth="14250" windowHeight="12397" xr2:uid="{4E24F2D9-687E-491A-8202-633EF1D66BDC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{4E24F2D9-687E-491A-8202-633EF1D66BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>era5_code</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Pa</t>
   </si>
   <si>
-    <t>Convert to hPa</t>
-  </si>
-  <si>
     <t>tcc</t>
   </si>
   <si>
@@ -162,7 +159,10 @@
     <t>rlds</t>
   </si>
   <si>
-    <t>slp??</t>
+    <t>psl</t>
+  </si>
+  <si>
+    <t>W/m2</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -551,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -574,7 +574,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -582,25 +582,22 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -617,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -637,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -657,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -671,16 +668,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -703,10 +700,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -723,10 +720,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
